--- a/data/import_Test.xlsx
+++ b/data/import_Test.xlsx
@@ -124,52 +124,52 @@
     <t>capa/일</t>
   </si>
   <si>
-    <t>08.08.2025</t>
-  </si>
-  <si>
-    <t>08.01.2025</t>
-  </si>
-  <si>
-    <t>08.02.2025</t>
-  </si>
-  <si>
-    <t>08.03.2025</t>
-  </si>
-  <si>
-    <t>08.04.2025</t>
-  </si>
-  <si>
-    <t>08.05.2025</t>
-  </si>
-  <si>
-    <t>08.06.2025</t>
-  </si>
-  <si>
-    <t>08.07.2025</t>
-  </si>
-  <si>
-    <t>08.09.2025</t>
-  </si>
-  <si>
-    <t>08.10.2025</t>
-  </si>
-  <si>
-    <t>08.11.2025</t>
-  </si>
-  <si>
-    <t>08.12.2025</t>
-  </si>
-  <si>
-    <t>08.14.2025</t>
-  </si>
-  <si>
-    <t>08.13.2025</t>
-  </si>
-  <si>
-    <t>08.15.2025</t>
-  </si>
-  <si>
-    <t>08.16.2025</t>
+    <t>08.01</t>
+  </si>
+  <si>
+    <t>08.02</t>
+  </si>
+  <si>
+    <t>08.03</t>
+  </si>
+  <si>
+    <t>08.04</t>
+  </si>
+  <si>
+    <t>08.05</t>
+  </si>
+  <si>
+    <t>08.06</t>
+  </si>
+  <si>
+    <t>08.07</t>
+  </si>
+  <si>
+    <t>08.08</t>
+  </si>
+  <si>
+    <t>08.09</t>
+  </si>
+  <si>
+    <t>08.10</t>
+  </si>
+  <si>
+    <t>08.11</t>
+  </si>
+  <si>
+    <t>08.12</t>
+  </si>
+  <si>
+    <t>08.13</t>
+  </si>
+  <si>
+    <t>08.14</t>
+  </si>
+  <si>
+    <t>08.15</t>
+  </si>
+  <si>
+    <t>08.16</t>
   </si>
 </sst>
 </file>
@@ -432,6 +432,15 @@
     <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,15 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CO16" sqref="CO16"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CY3" sqref="CY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,10 +765,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:102" ht="15.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -891,26 +891,26 @@
       <c r="BB2" s="5"/>
     </row>
     <row r="3" spans="1:102" ht="15.75">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
@@ -918,7 +918,7 @@
       <c r="K3" s="20"/>
       <c r="L3" s="21"/>
       <c r="M3" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
@@ -926,7 +926,7 @@
       <c r="Q3" s="20"/>
       <c r="R3" s="21"/>
       <c r="S3" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -934,7 +934,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
@@ -942,7 +942,7 @@
       <c r="AC3" s="20"/>
       <c r="AD3" s="21"/>
       <c r="AE3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
@@ -950,7 +950,7 @@
       <c r="AI3" s="20"/>
       <c r="AJ3" s="21"/>
       <c r="AK3" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL3" s="20"/>
       <c r="AM3" s="20"/>
@@ -958,7 +958,7 @@
       <c r="AO3" s="20"/>
       <c r="AP3" s="21"/>
       <c r="AQ3" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AR3" s="20"/>
       <c r="AS3" s="20"/>
@@ -966,7 +966,7 @@
       <c r="AU3" s="20"/>
       <c r="AV3" s="21"/>
       <c r="AW3" s="19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AX3" s="20"/>
       <c r="AY3" s="20"/>
@@ -1005,16 +1005,16 @@
       <c r="BX3" s="20"/>
       <c r="BY3" s="20"/>
       <c r="BZ3" s="21"/>
-      <c r="CA3" s="31" t="s">
+      <c r="CA3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="23"/>
+      <c r="CD3" s="23"/>
+      <c r="CE3" s="23"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="32"/>
-      <c r="CD3" s="32"/>
-      <c r="CE3" s="32"/>
-      <c r="CF3" s="33"/>
-      <c r="CG3" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="CH3" s="20"/>
       <c r="CI3" s="20"/>
@@ -1039,12 +1039,12 @@
       <c r="CX3" s="21"/>
     </row>
     <row r="4" spans="1:102" ht="31.5">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
@@ -2104,6 +2104,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="CM3:CR3"/>
     <mergeCell ref="CS3:CX3"/>
     <mergeCell ref="CG3:CL3"/>
@@ -2119,14 +2127,6 @@
     <mergeCell ref="AK3:AP3"/>
     <mergeCell ref="AQ3:AV3"/>
     <mergeCell ref="AW3:BB3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
